--- a/data/thermal-curve/metadata.xlsx
+++ b/data/thermal-curve/metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis.plough/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/thermal-curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79106642-554F-6843-B048-029CDFB94BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17B661-B75D-E949-AFCF-C9A4A7375499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="7740" windowWidth="18840" windowHeight="10740" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
+    <workbookView xWindow="-34460" yWindow="-840" windowWidth="30240" windowHeight="18880" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="39">
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -50,6 +147,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>plate1</t>
+  </si>
+  <si>
+    <t>plate2</t>
   </si>
 </sst>
 </file>
@@ -427,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943EADD-18D6-C34A-B3B5-063A7A4D8310}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,19 +543,1991 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20250620</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20250620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20250620</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20250620</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20250620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20250620</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20250620</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20250620</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20250620</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20250620</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20250620</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20250620</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20250620</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20250620</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20250620</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20250620</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20250620</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20250620</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20250620</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20250620</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20250620</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20250620</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20250620</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20250620</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20250620</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20250620</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250620</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20250620</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250620</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20250610</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250610</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250610</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250610</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250610</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250610</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250610</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250610</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250610</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20250610</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250610</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20250610</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250610</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20250610</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250610</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20250610</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250610</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20250610</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250610</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20250610</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20250610</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20250610</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20250610</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20250610</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20250610</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>37</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20250610</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20250610</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20250610</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20250610</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20250610</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20250610</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20250610</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20250610</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20250610</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20250610</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20250610</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20250610</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20250610</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20250610</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20250610</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20250610</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20250610</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20250610</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20250610</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20250610</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20250610</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20250610</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20250610</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20250610</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20250610</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20250610</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20250610</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20250610</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20250610</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20250610</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20250610</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20250610</v>
+      </c>
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20250610</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20250601</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20250601</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20250601</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>32</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20250601</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20250601</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20250601</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20250601</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20250601</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20250601</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20250601</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20250601</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20250601</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20250601</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20250601</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20250601</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20250601</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20250601</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>32</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20250601</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20250601</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20250601</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20250601</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20250601</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>32</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20250601</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20250601</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20250601</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113">
+        <v>32</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20250601</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20250601</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115">
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20250601</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116">
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20250601</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117">
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/thermal-curve/metadata.xlsx
+++ b/data/thermal-curve/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/thermal-curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17B661-B75D-E949-AFCF-C9A4A7375499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F84F63-B84C-9641-B6FE-E18B8940284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34460" yWindow="-840" windowWidth="30240" windowHeight="18880" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="10540" windowHeight="17760" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="39">
   <si>
     <t>A01</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943EADD-18D6-C34A-B3B5-063A7A4D8310}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2530,6 +2530,499 @@
         <v>30</v>
       </c>
     </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20250627</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20250627</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20250627</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20250627</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20250627</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122">
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20250627</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20250627</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20250627</v>
+      </c>
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20250627</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20250627</v>
+      </c>
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20250627</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20250627</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20250627</v>
+      </c>
+      <c r="B130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20250627</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20250627</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20250627</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20250627</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20250627</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20250627</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20250627</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20250627</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20250627</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20250627</v>
+      </c>
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20250627</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20250627</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20250627</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20250627</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20250627</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20250627</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/thermal-curve/metadata.xlsx
+++ b/data/thermal-curve/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/thermal-curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F84F63-B84C-9641-B6FE-E18B8940284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A672A69-BAA4-2F42-8C8B-C8C9BB9771D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10540" windowHeight="17760" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
+    <workbookView xWindow="19020" yWindow="760" windowWidth="10540" windowHeight="17760" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943EADD-18D6-C34A-B3B5-063A7A4D8310}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:C146"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1110,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1144,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1161,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1178,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1195,7 +1195,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -1212,7 +1212,7 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1229,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1246,7 +1246,7 @@
         <v>37</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -1263,7 +1263,7 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1297,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -1348,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -1365,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1382,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1399,7 +1399,7 @@
         <v>37</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1416,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -1433,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="C53">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
@@ -1450,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -1467,7 +1467,7 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -1484,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1501,7 +1501,7 @@
         <v>37</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -1518,7 +1518,7 @@
         <v>37</v>
       </c>
       <c r="C58">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -1535,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
@@ -1552,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>38</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -1620,7 +1620,7 @@
         <v>38</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -1671,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -1705,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -1722,7 +1722,7 @@
         <v>38</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -1739,7 +1739,7 @@
         <v>38</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -1756,7 +1756,7 @@
         <v>38</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>38</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -1841,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
@@ -1858,7 +1858,7 @@
         <v>38</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -1875,7 +1875,7 @@
         <v>38</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -1892,7 +1892,7 @@
         <v>38</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
         <v>25</v>
@@ -1926,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
@@ -1943,7 +1943,7 @@
         <v>38</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -1960,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -1977,7 +1977,7 @@
         <v>38</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1994,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -2011,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
@@ -2028,7 +2028,7 @@
         <v>38</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>

--- a/data/thermal-curve/metadata.xlsx
+++ b/data/thermal-curve/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/thermal-curve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A672A69-BAA4-2F42-8C8B-C8C9BB9771D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951ACFA3-1685-E84D-8F1A-16277CD9573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19020" yWindow="760" windowWidth="10540" windowHeight="17760" xr2:uid="{6EE03324-2EC3-1948-92E0-D75DA66F4FFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="40">
   <si>
     <t>A01</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>plate2</t>
+  </si>
+  <si>
+    <t>C06</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5943EADD-18D6-C34A-B3B5-063A7A4D8310}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,6 +3026,516 @@
         <v>30</v>
       </c>
     </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20250820</v>
+      </c>
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20250820</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20250820</v>
+      </c>
+      <c r="B149" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149">
+        <v>45</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20250820</v>
+      </c>
+      <c r="B150" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150">
+        <v>45</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20250820</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151">
+        <v>45</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20250820</v>
+      </c>
+      <c r="B152" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152">
+        <v>45</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20250820</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20250820</v>
+      </c>
+      <c r="B154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20250820</v>
+      </c>
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155">
+        <v>45</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20250820</v>
+      </c>
+      <c r="B156" t="s">
+        <v>37</v>
+      </c>
+      <c r="C156">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>20250820</v>
+      </c>
+      <c r="B157" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157">
+        <v>45</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>20250820</v>
+      </c>
+      <c r="B158" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158">
+        <v>45</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>20250820</v>
+      </c>
+      <c r="B159" t="s">
+        <v>37</v>
+      </c>
+      <c r="C159">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20250820</v>
+      </c>
+      <c r="B160" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20250820</v>
+      </c>
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161">
+        <v>45</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20250820</v>
+      </c>
+      <c r="B162" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162">
+        <v>45</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20250820</v>
+      </c>
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163">
+        <v>45</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>20250820</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>20250820</v>
+      </c>
+      <c r="B165" t="s">
+        <v>37</v>
+      </c>
+      <c r="C165">
+        <v>45</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>20250820</v>
+      </c>
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166">
+        <v>45</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>20250820</v>
+      </c>
+      <c r="B167" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167">
+        <v>45</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>20250820</v>
+      </c>
+      <c r="B168" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168">
+        <v>45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>20250820</v>
+      </c>
+      <c r="B169" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169">
+        <v>45</v>
+      </c>
+      <c r="D169" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20250820</v>
+      </c>
+      <c r="B170" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170">
+        <v>45</v>
+      </c>
+      <c r="D170" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>20250820</v>
+      </c>
+      <c r="B171" t="s">
+        <v>37</v>
+      </c>
+      <c r="C171">
+        <v>45</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>20250820</v>
+      </c>
+      <c r="B172" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>20250820</v>
+      </c>
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>20250820</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>20250820</v>
+      </c>
+      <c r="B175" t="s">
+        <v>37</v>
+      </c>
+      <c r="C175">
+        <v>45</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20250820</v>
+      </c>
+      <c r="B176" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176">
+        <v>45</v>
+      </c>
+      <c r="D176" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
